--- a/element_data/element_infos.xlsx
+++ b/element_data/element_infos.xlsx
@@ -7,15 +7,15 @@
     <workbookView windowWidth="20930" windowHeight="10730" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="main" sheetId="2" r:id="rId2"/>
+    <sheet name="login_suite" sheetId="1" r:id="rId1"/>
+    <sheet name="main_suite" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>元素总名称</t>
   </si>
@@ -23,6 +23,12 @@
     <t>元素名称</t>
   </si>
   <si>
+    <t>所属页面</t>
+  </si>
+  <si>
+    <t>是否执行</t>
+  </si>
+  <si>
     <t>定位方式</t>
   </si>
   <si>
@@ -38,6 +44,12 @@
     <t>用户名输入框</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>xpath</t>
   </si>
   <si>
@@ -66,6 +78,9 @@
   </si>
   <si>
     <t>bug菜单</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
   <si>
     <t>//li[@data-id="bug"]</t>
@@ -94,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -109,28 +124,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,60 +228,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -206,18 +236,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,22 +261,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +276,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,157 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +485,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -481,17 +505,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -529,26 +557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +575,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,139 +587,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1025,20 +1043,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="25.2727272727273" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
+    <col min="6" max="6" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,55 +1072,79 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>5</v>
       </c>
     </row>
@@ -1115,20 +1157,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="42.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1138,65 +1182,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/element_data/element_infos.xlsx
+++ b/element_data/element_infos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>元素总名称</t>
   </si>
@@ -26,9 +26,6 @@
     <t>所属页面</t>
   </si>
   <si>
-    <t>是否执行</t>
-  </si>
-  <si>
     <t>定位方式</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>login</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>xpath</t>
@@ -109,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -124,74 +118,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,38 +217,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,22 +256,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,6 +484,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,154 +569,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,20 +1034,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C4"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="25.2727272727273" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="25.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,76 +1066,64 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
@@ -1157,22 +1136,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1818181818182" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="42.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1159,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1191,85 +1168,68 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/element_data/element_infos.xlsx
+++ b/element_data/element_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10730" activeTab="1"/>
+    <workbookView windowWidth="20930" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -104,8 +104,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -118,45 +118,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,94 +223,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,37 +270,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,133 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,15 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,6 +505,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -550,17 +561,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/element_data/element_infos.xlsx
+++ b/element_data/element_infos.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="10730"/>
+    <workbookView windowWidth="20930" windowHeight="10730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
     <sheet name="main_suite" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="113">
   <si>
     <t>元素总名称</t>
   </si>
@@ -95,7 +96,265 @@
     <t>退出登录</t>
   </si>
   <si>
-    <t>//a[@href="/zentao/user-logout.html"]</t>
+    <t>//a[@href="/zentao/www/index.php?m=user&amp;f=logout"]</t>
+  </si>
+  <si>
+    <t>test_module</t>
+  </si>
+  <si>
+    <t>测试模块</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>//li[@data-id="qa"]</t>
+  </si>
+  <si>
+    <t>bug_module</t>
+  </si>
+  <si>
+    <t>bug模块</t>
+  </si>
+  <si>
+    <t>create_bug</t>
+  </si>
+  <si>
+    <t>提bug按钮</t>
+  </si>
+  <si>
+    <t>//a[@href="/zentao/www/index.php?m=bug&amp;f=create&amp;productID=5&amp;branch=0&amp;extra=moduleID=0"]</t>
+  </si>
+  <si>
+    <t>product_chosen</t>
+  </si>
+  <si>
+    <t>所属产品框</t>
+  </si>
+  <si>
+    <t>//div[@id="product_chosen"]</t>
+  </si>
+  <si>
+    <t>click_product_chosen</t>
+  </si>
+  <si>
+    <t>选择所属产品</t>
+  </si>
+  <si>
+    <t>//li[@title="DBShop电商项目"]</t>
+  </si>
+  <si>
+    <t>module_chosen</t>
+  </si>
+  <si>
+    <t>所属模块</t>
+  </si>
+  <si>
+    <t>//div[@id="module_chosen"]</t>
+  </si>
+  <si>
+    <t>click_module_chosen</t>
+  </si>
+  <si>
+    <t>选择所属模块</t>
+  </si>
+  <si>
+    <t>//li[@title="/统计分析"]</t>
+  </si>
+  <si>
+    <t>project_chosen</t>
+  </si>
+  <si>
+    <t>所属项目</t>
+  </si>
+  <si>
+    <t>//div[@id="project_chosen"]</t>
+  </si>
+  <si>
+    <t>click_project_chosen</t>
+  </si>
+  <si>
+    <t>选择所属项目</t>
+  </si>
+  <si>
+    <t>//li[@title="DBShopv1.0"]</t>
+  </si>
+  <si>
+    <t>openedBuild_chosen</t>
+  </si>
+  <si>
+    <t>影响版本</t>
+  </si>
+  <si>
+    <t>//div[@id="openedBuild_chosen"]</t>
+  </si>
+  <si>
+    <t>click_openedBuild_chosen</t>
+  </si>
+  <si>
+    <t>选择影响版本</t>
+  </si>
+  <si>
+    <t>//li[@title="主干"]</t>
+  </si>
+  <si>
+    <t>assignedTo_chosen</t>
+  </si>
+  <si>
+    <t>当前指派</t>
+  </si>
+  <si>
+    <t>//div[@id="assignedTo_chosen"]</t>
+  </si>
+  <si>
+    <t>click_assignedTo_chosen</t>
+  </si>
+  <si>
+    <t>选择当前指派人</t>
+  </si>
+  <si>
+    <t>//li[@title="D:开发人员1"]</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>//input[@id="deadline"]</t>
+  </si>
+  <si>
+    <t>type_chosen</t>
+  </si>
+  <si>
+    <t>bug类型</t>
+  </si>
+  <si>
+    <t>//div[@id="type_chosen"]</t>
+  </si>
+  <si>
+    <t>click_type_chosen</t>
+  </si>
+  <si>
+    <t>选择bug类型</t>
+  </si>
+  <si>
+    <t>//li[@title="安全相关"]</t>
+  </si>
+  <si>
+    <t>os_chosen</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>//div[@id="os_chosen"]</t>
+  </si>
+  <si>
+    <t>click_os_chosen</t>
+  </si>
+  <si>
+    <t>选择操作系统</t>
+  </si>
+  <si>
+    <t>//li[@title="全部"]</t>
+  </si>
+  <si>
+    <t>browser_chosen</t>
+  </si>
+  <si>
+    <t>浏览器</t>
+  </si>
+  <si>
+    <t>//div[@id="browser_chosen"]</t>
+  </si>
+  <si>
+    <t>click_browser_chosen</t>
+  </si>
+  <si>
+    <t>选择浏览器</t>
+  </si>
+  <si>
+    <t>//li[@title="chrome"]</t>
+  </si>
+  <si>
+    <t>input_bug_title</t>
+  </si>
+  <si>
+    <t>bug标题</t>
+  </si>
+  <si>
+    <t>//input[@id="title"]</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>严重程度</t>
+  </si>
+  <si>
+    <t>//div[@data-type="severity"]</t>
+  </si>
+  <si>
+    <t>click_severity</t>
+  </si>
+  <si>
+    <t>选择严重程度</t>
+  </si>
+  <si>
+    <t>//span[@data-value="4"]</t>
+  </si>
+  <si>
+    <t>pri</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>//div[@data-type="pri"]</t>
+  </si>
+  <si>
+    <t>click_pri</t>
+  </si>
+  <si>
+    <t>选择优先级</t>
+  </si>
+  <si>
+    <t>/html/body/main/div/div[1]/div/form/table/tbody/tr[5]/td/div/div[3]/div/div/span[4]</t>
+  </si>
+  <si>
+    <t>claer_article_content</t>
+  </si>
+  <si>
+    <t>清空重现步骤</t>
+  </si>
+  <si>
+    <t>//body[@class="article-content"]</t>
+  </si>
+  <si>
+    <t>input_article_content</t>
+  </si>
+  <si>
+    <t>输入重现步骤</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>提交bug表单</t>
+  </si>
+  <si>
+    <t>//*[@id="submit"]</t>
+  </si>
+  <si>
+    <t>iframe</t>
+  </si>
+  <si>
+    <t>输入框表单</t>
+  </si>
+  <si>
+    <t>//iframe[@class="ke-edit-iframe"]</t>
   </si>
 </sst>
 </file>
@@ -118,22 +377,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +398,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -161,16 +405,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,15 +437,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +454,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +475,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -240,7 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,14 +514,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,187 +529,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,21 +720,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,18 +742,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +775,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +809,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1138,8 +1397,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1206,7 +1465,7 @@
         <v>23</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1226,7 +1485,630 @@
         <v>26</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
+    <col min="5" max="5" width="98.3636363636364" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
